--- a/Документы для команды/Журнал спринтов.xlsx
+++ b/Документы для команды/Журнал спринтов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YandexDisk\Универ\Командная разработка ПС\чат-бот для Telegram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chat-Bot\Документы для команды\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -238,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -419,21 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -459,22 +444,138 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -486,152 +587,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,131 +628,132 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1057,7 +1037,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,148 +1073,148 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="18">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="48"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="24">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1254,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,371 +1254,371 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="55">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="3">
+      <c r="D4" s="46"/>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="3">
+      <c r="D5" s="46"/>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="D7" s="47"/>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="56">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="56">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="14">
         <v>3</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="58">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="32">
-        <v>2</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29">
-        <v>2</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="60">
+        <v>2</v>
+      </c>
+      <c r="F16" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="29">
-        <v>2</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="E17" s="60">
+        <v>2</v>
+      </c>
+      <c r="F17" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
-        <v>2</v>
-      </c>
-      <c r="F18" s="35">
+      <c r="D18" s="48"/>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="F18" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26">
-        <v>2</v>
-      </c>
-      <c r="F19" s="35">
+      <c r="D19" s="48"/>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="39">
-        <v>2</v>
-      </c>
-      <c r="F20" s="40">
+      <c r="D20" s="51"/>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="55">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="12">
         <v>3</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="12">
         <v>3</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="12">
         <v>3</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="12">
         <v>3</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="36">
+      <c r="D26" s="54"/>
+      <c r="E26" s="13">
         <v>3</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="57">
         <v>8</v>
       </c>
     </row>

--- a/Документы для команды/Журнал спринтов.xlsx
+++ b/Документы для команды/Журнал спринтов.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Функции</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Установка среды для работы с Go</t>
+  </si>
+  <si>
+    <t>Храпмцов Илья</t>
   </si>
 </sst>
 </file>
@@ -632,64 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,21 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,12 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -754,6 +682,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1073,148 +1076,148 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="39">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="45">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1234,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1257,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1266,359 +1269,365 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="31">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="31">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="59" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="12">
         <v>2</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="14">
         <v>3</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="60">
-        <v>2</v>
-      </c>
-      <c r="F16" s="59">
+      <c r="E16" s="35">
+        <v>2</v>
+      </c>
+      <c r="F16" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="60">
-        <v>2</v>
-      </c>
-      <c r="F17" s="59">
+      <c r="E17" s="35">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="12">
         <v>2</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="14">
         <v>2</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="12">
         <v>3</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="12">
         <v>3</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="12">
         <v>3</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="12">
         <v>3</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="13">
         <v>3</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="32">
         <v>8</v>
       </c>
     </row>

--- a/Документы для команды/Журнал спринтов.xlsx
+++ b/Документы для команды/Журнал спринтов.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="24.02" sheetId="1" r:id="rId1"/>
     <sheet name="25.02-03.03" sheetId="2" r:id="rId2"/>
     <sheet name="03.03" sheetId="3" r:id="rId3"/>
     <sheet name="04.03-10.03" sheetId="4" r:id="rId4"/>
+    <sheet name="04.03" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Функции</t>
   </si>
@@ -201,6 +202,81 @@
   </si>
   <si>
     <t>Храпмцов Илья</t>
+  </si>
+  <si>
+    <t>Работа с хостом</t>
+  </si>
+  <si>
+    <t>Научиться самому и научить других заливать проект на хост</t>
+  </si>
+  <si>
+    <t>Создать ответы бота на сообщения</t>
+  </si>
+  <si>
+    <t>Создать связи между ответами бота и ключевых фраз пользователя</t>
+  </si>
+  <si>
+    <t>Реализовать считывание ответа бота по ключевой фразе пользователя</t>
+  </si>
+  <si>
+    <t>Вывод ответа</t>
+  </si>
+  <si>
+    <t>Занести Ответы бота в таблицу TablуAnswer</t>
+  </si>
+  <si>
+    <t>Занести ключевые слова в таблицу TableKeywords</t>
+  </si>
+  <si>
+    <t>Занести связи между ключевыми словами пользователя и ответами бота в таблицу TableKeyAnsw</t>
+  </si>
+  <si>
+    <t>Выделение ключевых фраз из сообщения</t>
+  </si>
+  <si>
+    <t>Добавление человека для совместного планирования бюджета</t>
+  </si>
+  <si>
+    <t>Google Sheets</t>
+  </si>
+  <si>
+    <t>Внести виды расходов в таблицу TableCost</t>
+  </si>
+  <si>
+    <t>Внести виды доходов в таблицу TableIncome</t>
+  </si>
+  <si>
+    <t>Доработать таблицы</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>Объединить код</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Доход</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Расход</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Цели</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Выписка</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Долги</t>
+  </si>
+  <si>
+    <t>Выполнение задачи Баланс</t>
+  </si>
+  <si>
+    <t>Реализация функции addFunds ( 6-я в документе про проектирование функций)</t>
+  </si>
+  <si>
+    <t>P.S. Кроме сумму дохода, я бы отправлял ещё тип дохода (зарплата, аванс, …)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +758,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,6 +835,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,148 +1198,148 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="40">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="46">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1237,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,13 +1396,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="11">
@@ -1291,11 +1413,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="12">
         <v>1</v>
       </c>
@@ -1304,11 +1426,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="12">
         <v>1</v>
       </c>
@@ -1317,11 +1439,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="12">
@@ -1332,11 +1454,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="12">
         <v>2</v>
       </c>
@@ -1345,7 +1467,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1482,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
@@ -1375,7 +1497,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1390,12 +1512,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>43</v>
+      <c r="D11" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="12">
         <v>2</v>
@@ -1405,11 +1527,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="13">
         <v>2</v>
       </c>
@@ -1418,7 +1540,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1435,7 +1557,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1572,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1467,7 +1589,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="22" t="s">
         <v>44</v>
       </c>
@@ -1482,7 +1604,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="22" t="s">
         <v>45</v>
       </c>
@@ -1497,13 +1619,11 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="12">
         <v>2</v>
       </c>
@@ -1512,13 +1632,11 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="26"/>
       <c r="E19" s="12">
         <v>2</v>
       </c>
@@ -1527,7 +1645,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
@@ -1542,7 +1660,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1559,7 +1677,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
@@ -1574,7 +1692,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
@@ -1589,7 +1707,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="19" t="s">
         <v>52</v>
       </c>
@@ -1604,11 +1722,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="12">
@@ -1619,11 +1737,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="13">
         <v>3</v>
       </c>
@@ -1652,7 +1770,7 @@
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,14 +1811,460 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J35:J36"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="39"/>
+      <c r="C15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="62"/>
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="64"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="64"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="62"/>
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="62"/>
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="C30" s="64"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="C31" s="64"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="C32" s="64"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="62"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="63"/>
+      <c r="C37" s="78"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="63"/>
+      <c r="C38" s="78"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>